--- a/Assets/Resources/Json/.Task2Config.xlsx
+++ b/Assets/Resources/Json/.Task2Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16660" windowHeight="13920"/>
+    <workbookView windowHeight="17925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
     <t>钻石奖励数量</t>
   </si>
   <si>
-    <t>Attendance Pro</t>
-  </si>
-  <si>
-    <t>Login for X days total</t>
+    <t>出勤达人</t>
+  </si>
+  <si>
+    <t>累计登录游戏X天</t>
   </si>
   <si>
     <t>2,3,4,5,6,7,10,15,20,30</t>
@@ -79,157 +79,157 @@
     <t>50,100,200,300,400,500,600,700,800,1000</t>
   </si>
   <si>
-    <t>Veteran Pilot</t>
-  </si>
-  <si>
-    <t>Complete X flights total</t>
+    <t>飞行老手</t>
+  </si>
+  <si>
+    <t>累计完成X次飞行</t>
   </si>
   <si>
     <t>50,100,150,200,500,1000,1500,3000,5000,10000</t>
   </si>
   <si>
-    <t>Thank U</t>
-  </si>
-  <si>
-    <t>Watch X ads total</t>
+    <t>感谢有你</t>
+  </si>
+  <si>
+    <t>累计观看X次广告</t>
   </si>
   <si>
     <t>5,10,20,30,40,50,100,200,500,1000</t>
   </si>
   <si>
-    <t>Master Mechanic</t>
-  </si>
-  <si>
-    <t>Upgrade parts X times total</t>
+    <t>机械师</t>
+  </si>
+  <si>
+    <t>累计升级X次部件</t>
   </si>
   <si>
     <t>5,10,20,40,80,150,300,500,800,1000</t>
   </si>
   <si>
-    <t>Treasure Hunter</t>
-  </si>
-  <si>
-    <t>Open X part chests total</t>
-  </si>
-  <si>
-    <t>Shopping Tycoon</t>
-  </si>
-  <si>
-    <t>Buy x Parts from shop total</t>
-  </si>
-  <si>
-    <t>Spin Master</t>
-  </si>
-  <si>
-    <t>Claim X online rewards total</t>
+    <t>寻宝奇兵</t>
+  </si>
+  <si>
+    <t>累计打开X个部件宝箱</t>
+  </si>
+  <si>
+    <t>淘宝王</t>
+  </si>
+  <si>
+    <t>商店累计购买X次部件</t>
+  </si>
+  <si>
+    <t>转盘能手</t>
+  </si>
+  <si>
+    <t>累计领取X次在线奖励</t>
   </si>
   <si>
     <t>5,10,20,40,80,130,200,300,350,500</t>
   </si>
   <si>
-    <t>Catapult Launch</t>
-  </si>
-  <si>
-    <t>Launcher upgraded to Lv.X</t>
+    <t>弹射起飞</t>
+  </si>
+  <si>
+    <t>发射器强化到X级</t>
   </si>
   <si>
     <t>100,200,300,400,500,600,700,800,900,1000</t>
   </si>
   <si>
-    <t>Hyper Boost</t>
-  </si>
-  <si>
-    <t>Boost ring upgraded to Lv.X</t>
-  </si>
-  <si>
-    <t>Aerial Perpetuum </t>
-  </si>
-  <si>
-    <t>Thruster plate upgraded to Lv.X</t>
-  </si>
-  <si>
-    <t>Moneybags</t>
-  </si>
-  <si>
-    <t>Coin Bonus upgraded to Lv.X</t>
-  </si>
-  <si>
-    <t>Globe Trotter</t>
-  </si>
-  <si>
-    <t>Visit X landmarks total</t>
+    <t>超动力启动</t>
+  </si>
+  <si>
+    <t>喷射推进板强化到X级</t>
+  </si>
+  <si>
+    <t>空中永动机</t>
+  </si>
+  <si>
+    <t>推进环强化到X级</t>
+  </si>
+  <si>
+    <t>财高八斗</t>
+  </si>
+  <si>
+    <t>金币加成强化到X级</t>
+  </si>
+  <si>
+    <t>旅行家</t>
+  </si>
+  <si>
+    <t>累计完成X个地标打卡</t>
   </si>
   <si>
     <t>5,10,15,20,25,30,35,40,45,50</t>
   </si>
   <si>
-    <t>Top of the World </t>
-  </si>
-  <si>
-    <t>Reach XM altitude</t>
+    <t>高人一等</t>
+  </si>
+  <si>
+    <t>飞行高度达到XM</t>
   </si>
   <si>
     <t>25,30,35,40,45,50,55,60,65,70</t>
   </si>
   <si>
-    <t>Leaderboard Dominator</t>
-  </si>
-  <si>
-    <t>Fly XM distance</t>
+    <t>榜单由我承包</t>
+  </si>
+  <si>
+    <t>飞行距离达到XM</t>
   </si>
   <si>
     <t>2000,4000,8000,12000,16000,20000,24000,28000,32000,36000</t>
   </si>
   <si>
-    <t>Speed Demon</t>
-  </si>
-  <si>
-    <t>Reach XM speed</t>
+    <t>风驰电掣</t>
+  </si>
+  <si>
+    <t>飞行速度达到XM/H</t>
   </si>
   <si>
     <t>50,60,65,70,75,80,85,90,95,100</t>
   </si>
   <si>
-    <t>Specialist</t>
-  </si>
-  <si>
-    <t>Any part upgraded to Lv.X</t>
+    <t>专精</t>
+  </si>
+  <si>
+    <t>任意一个部件升级到X级</t>
   </si>
   <si>
     <t>2,3,4,5,6,7,8,9,10,11</t>
   </si>
   <si>
-    <t>Collector</t>
-  </si>
-  <si>
-    <t>Obtain X parts total</t>
+    <t>收藏家</t>
+  </si>
+  <si>
+    <t>累计获得X个部件</t>
   </si>
   <si>
     <t>5,10,20,50,100,150,200,250,300,400</t>
   </si>
   <si>
-    <t>Elite Gamer</t>
-  </si>
-  <si>
-    <t>Obtain X red parts total</t>
+    <t>高端玩家</t>
+  </si>
+  <si>
+    <t>累计获得X个红色部件</t>
   </si>
   <si>
     <t>5,6,7,8,9,10,11,12,13,15</t>
   </si>
   <si>
-    <t>Cash Flow</t>
-  </si>
-  <si>
-    <t>Collect X coins in flight total</t>
+    <t>财源滚滚</t>
+  </si>
+  <si>
+    <t>飞行中累计捡取X枚金币</t>
   </si>
   <si>
     <t>20,50,80,150,300,500,800,1500,2000,3000</t>
   </si>
   <si>
-    <t>No Landing Zone</t>
-  </si>
-  <si>
-    <t>Activate Boost Ring X times total</t>
+    <t>绝对不落下来</t>
+  </si>
+  <si>
+    <t>飞行中累计触发X次推进环</t>
   </si>
   <si>
     <t>10,20,40,80,150,250,400,700,1000,1500</t>
@@ -245,18 +245,11 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +257,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -272,14 +265,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -287,7 +280,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -295,7 +288,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -303,7 +296,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -311,7 +304,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -319,14 +312,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -334,7 +327,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -342,7 +335,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -350,14 +343,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -365,42 +358,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -725,197 +718,194 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1176,13 +1166,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
@@ -1243,10 +1233,10 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1263,10 +1253,10 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1283,10 +1273,10 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1303,10 +1293,10 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1323,10 +1313,10 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1343,10 +1333,10 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1363,10 +1353,10 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1383,10 +1373,10 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1403,10 +1393,10 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1423,10 +1413,10 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1443,10 +1433,10 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1463,10 +1453,10 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1483,10 +1473,10 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1503,10 +1493,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1523,10 +1513,10 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1543,10 +1533,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1563,10 +1553,10 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1583,10 +1573,10 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1603,10 +1593,10 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1623,39 +1613,12 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="17.6" spans="2:2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" ht="17.6" spans="2:2">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" ht="17.6" spans="2:2">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" ht="17.6" spans="2:2">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" ht="17.6" spans="2:2">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" ht="17.6" spans="2:2">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" ht="17.6" spans="2:2">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" ht="17.6" spans="2:2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" ht="17.6" spans="2:2">
-      <c r="B31" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1673,7 +1636,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1690,7 +1653,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Json/.Task2Config.xlsx
+++ b/Assets/Resources/Json/.Task2Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17925"/>
+    <workbookView windowWidth="16660" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
     <t>钻石奖励数量</t>
   </si>
   <si>
-    <t>出勤达人</t>
-  </si>
-  <si>
-    <t>累计登录游戏X天</t>
+    <t>Attendance Pro</t>
+  </si>
+  <si>
+    <t>Login for X days total</t>
   </si>
   <si>
     <t>2,3,4,5,6,7,10,15,20,30</t>
@@ -79,157 +79,157 @@
     <t>50,100,200,300,400,500,600,700,800,1000</t>
   </si>
   <si>
-    <t>飞行老手</t>
-  </si>
-  <si>
-    <t>累计完成X次飞行</t>
+    <t>Veteran Pilot</t>
+  </si>
+  <si>
+    <t>Complete X flights total</t>
   </si>
   <si>
     <t>50,100,150,200,500,1000,1500,3000,5000,10000</t>
   </si>
   <si>
-    <t>感谢有你</t>
-  </si>
-  <si>
-    <t>累计观看X次广告</t>
+    <t>Thank U</t>
+  </si>
+  <si>
+    <t>Watch X ads total</t>
   </si>
   <si>
     <t>5,10,20,30,40,50,100,200,500,1000</t>
   </si>
   <si>
-    <t>机械师</t>
-  </si>
-  <si>
-    <t>累计升级X次部件</t>
+    <t>Master Mechanic</t>
+  </si>
+  <si>
+    <t>Upgrade parts X times total</t>
   </si>
   <si>
     <t>5,10,20,40,80,150,300,500,800,1000</t>
   </si>
   <si>
-    <t>寻宝奇兵</t>
-  </si>
-  <si>
-    <t>累计打开X个部件宝箱</t>
-  </si>
-  <si>
-    <t>淘宝王</t>
-  </si>
-  <si>
-    <t>商店累计购买X次部件</t>
-  </si>
-  <si>
-    <t>转盘能手</t>
-  </si>
-  <si>
-    <t>累计领取X次在线奖励</t>
+    <t>Treasure Hunter</t>
+  </si>
+  <si>
+    <t>Open X part chests total</t>
+  </si>
+  <si>
+    <t>Shopping Tycoon</t>
+  </si>
+  <si>
+    <t>Buy x Parts from shop total</t>
+  </si>
+  <si>
+    <t>Spin Master</t>
+  </si>
+  <si>
+    <t>Claim X online rewards total</t>
   </si>
   <si>
     <t>5,10,20,40,80,130,200,300,350,500</t>
   </si>
   <si>
-    <t>弹射起飞</t>
-  </si>
-  <si>
-    <t>发射器强化到X级</t>
+    <t>Catapult Launch</t>
+  </si>
+  <si>
+    <t>Launcher upgraded to Lv.X</t>
   </si>
   <si>
     <t>100,200,300,400,500,600,700,800,900,1000</t>
   </si>
   <si>
-    <t>超动力启动</t>
-  </si>
-  <si>
-    <t>喷射推进板强化到X级</t>
-  </si>
-  <si>
-    <t>空中永动机</t>
-  </si>
-  <si>
-    <t>推进环强化到X级</t>
-  </si>
-  <si>
-    <t>财高八斗</t>
-  </si>
-  <si>
-    <t>金币加成强化到X级</t>
-  </si>
-  <si>
-    <t>旅行家</t>
-  </si>
-  <si>
-    <t>累计完成X个地标打卡</t>
+    <t>Hyper Boost</t>
+  </si>
+  <si>
+    <t>Boost ring upgraded to Lv.X</t>
+  </si>
+  <si>
+    <t>Aerial Perpetuum </t>
+  </si>
+  <si>
+    <t>Thruster plate upgraded to Lv.X</t>
+  </si>
+  <si>
+    <t>Moneybags</t>
+  </si>
+  <si>
+    <t>Coin Bonus upgraded to Lv.X</t>
+  </si>
+  <si>
+    <t>Globe Trotter</t>
+  </si>
+  <si>
+    <t>Visit X landmarks total</t>
   </si>
   <si>
     <t>5,10,15,20,25,30,35,40,45,50</t>
   </si>
   <si>
-    <t>高人一等</t>
-  </si>
-  <si>
-    <t>飞行高度达到XM</t>
+    <t>Top of the World </t>
+  </si>
+  <si>
+    <t>Reach XM altitude</t>
   </si>
   <si>
     <t>25,30,35,40,45,50,55,60,65,70</t>
   </si>
   <si>
-    <t>榜单由我承包</t>
-  </si>
-  <si>
-    <t>飞行距离达到XM</t>
+    <t>Leaderboard Dominator</t>
+  </si>
+  <si>
+    <t>Fly XM distance</t>
   </si>
   <si>
     <t>2000,4000,8000,12000,16000,20000,24000,28000,32000,36000</t>
   </si>
   <si>
-    <t>风驰电掣</t>
-  </si>
-  <si>
-    <t>飞行速度达到XM/H</t>
+    <t>Speed Demon</t>
+  </si>
+  <si>
+    <t>Reach XM speed</t>
   </si>
   <si>
     <t>50,60,65,70,75,80,85,90,95,100</t>
   </si>
   <si>
-    <t>专精</t>
-  </si>
-  <si>
-    <t>任意一个部件升级到X级</t>
+    <t>Specialist</t>
+  </si>
+  <si>
+    <t>Any part upgraded to Lv.X</t>
   </si>
   <si>
     <t>2,3,4,5,6,7,8,9,10,11</t>
   </si>
   <si>
-    <t>收藏家</t>
-  </si>
-  <si>
-    <t>累计获得X个部件</t>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Obtain X parts total</t>
   </si>
   <si>
     <t>5,10,20,50,100,150,200,250,300,400</t>
   </si>
   <si>
-    <t>高端玩家</t>
-  </si>
-  <si>
-    <t>累计获得X个红色部件</t>
+    <t>Elite Gamer</t>
+  </si>
+  <si>
+    <t>Obtain X red parts total</t>
   </si>
   <si>
     <t>5,6,7,8,9,10,11,12,13,15</t>
   </si>
   <si>
-    <t>财源滚滚</t>
-  </si>
-  <si>
-    <t>飞行中累计捡取X枚金币</t>
+    <t>Cash Flow</t>
+  </si>
+  <si>
+    <t>Collect X coins in flight total</t>
   </si>
   <si>
     <t>20,50,80,150,300,500,800,1500,2000,3000</t>
   </si>
   <si>
-    <t>绝对不落下来</t>
-  </si>
-  <si>
-    <t>飞行中累计触发X次推进环</t>
+    <t>No Landing Zone</t>
+  </si>
+  <si>
+    <t>Activate Boost Ring X times total</t>
   </si>
   <si>
     <t>10,20,40,80,150,250,400,700,1000,1500</t>
@@ -245,11 +245,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -257,7 +264,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -265,14 +272,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +287,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -288,7 +295,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -296,7 +303,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +311,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -312,14 +319,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -327,7 +334,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -335,7 +342,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -343,14 +350,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -358,42 +365,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -718,194 +725,197 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1166,13 +1176,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
@@ -1233,10 +1243,10 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1253,10 +1263,10 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1273,10 +1283,10 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1293,10 +1303,10 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1313,10 +1323,10 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1333,10 +1343,10 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1353,10 +1363,10 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1373,10 +1383,10 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1393,10 +1403,10 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1413,10 +1423,10 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1433,10 +1443,10 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1453,10 +1463,10 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1473,10 +1483,10 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1493,10 +1503,10 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1513,10 +1523,10 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1533,10 +1543,10 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1553,10 +1563,10 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1573,10 +1583,10 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1593,10 +1603,10 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1613,12 +1623,39 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="17.6" spans="2:2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" ht="17.6" spans="2:2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" ht="17.6" spans="2:2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" ht="17.6" spans="2:2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" ht="17.6" spans="2:2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" ht="17.6" spans="2:2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" ht="17.6" spans="2:2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" ht="17.6" spans="2:2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" ht="17.6" spans="2:2">
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1636,7 +1673,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1653,7 +1690,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
